--- a/data/144/SCB/old/HIKPIND22015.xlsx
+++ b/data/144/SCB/old/HIKPIND22015.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
   <x:si>
     <x:t>Harmonized Index of Consumer Prices, 2015=100, Index by month</x:t>
   </x:si>
@@ -943,13 +943,22 @@
     <x:t>2021M08</x:t>
   </x:si>
   <x:si>
+    <x:t>2021M09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021M10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021M11</x:t>
+  </x:si>
+  <x:si>
     <x:t>This table is replaced by &lt;a href="https://www.statistikdatabasen.scb.se/pxweb/en/ssd/START__PR__PR0101__PR0101C/HIKP/"&gt;Harmonized Index of Consumer Prices (HICP), 2015=100&lt;/a&gt;.</x:t>
   </x:si>
   <x:si>
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20210914 09:30</x:t>
+    <x:t>20211214 09:30</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1405,22 +1414,22 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:KV45"/>
+  <x:dimension ref="A1:KY45"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="308" width="10.840625000000001" style="0" customWidth="1"/>
+    <x:col min="2" max="311" width="10.840625000000001" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:308">
+    <x:row r="1" spans="1:311">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:308">
+    <x:row r="3" spans="1:311">
       <x:c r="A3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -2345,8 +2354,17 @@
       <x:c r="KV3" s="2" t="s">
         <x:v>308</x:v>
       </x:c>
+      <x:c r="KW3" s="2" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="KX3" s="2" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="KY3" s="2" t="s">
+        <x:v>311</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:308">
+    <x:row r="4" spans="1:311">
       <x:c r="A4" s="3" t="n">
         <x:v>75.41</x:v>
       </x:c>
@@ -3271,129 +3289,138 @@
       <x:c r="KV4" s="3" t="n">
         <x:v>110.72</x:v>
       </x:c>
+      <x:c r="KW4" s="3" t="n">
+        <x:v>111.29</x:v>
+      </x:c>
+      <x:c r="KX4" s="3" t="n">
+        <x:v>111.53</x:v>
+      </x:c>
+      <x:c r="KY4" s="3" t="n">
+        <x:v>112.15</x:v>
+      </x:c>
     </x:row>
-    <x:row r="6" spans="1:308">
+    <x:row r="6" spans="1:311">
       <x:c r="A6" s="4" t="s">
-        <x:v>309</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:308">
+    <x:row r="8" spans="1:311">
       <x:c r="A8" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:308">
+    <x:row r="9" spans="1:311">
       <x:c r="A9" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:308">
+    <x:row r="11" spans="1:311">
       <x:c r="A11" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:308">
+    <x:row r="12" spans="1:311">
       <x:c r="A12" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:308">
+    <x:row r="14" spans="1:311">
       <x:c r="A14" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:308">
+    <x:row r="15" spans="1:311">
       <x:c r="A15" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>318</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:308">
+    <x:row r="16" spans="1:311">
       <x:c r="A16" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>319</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:308">
+    <x:row r="17" spans="1:311">
       <x:c r="A17" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>320</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:308">
+    <x:row r="18" spans="1:311">
       <x:c r="A18" s="0" t="s"/>
     </x:row>
-    <x:row r="19" spans="1:308">
+    <x:row r="19" spans="1:311">
       <x:c r="A19" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>321</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:308">
+    <x:row r="20" spans="1:311">
       <x:c r="A20" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:308">
+    <x:row r="21" spans="1:311">
       <x:c r="A21" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>323</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:308">
+    <x:row r="22" spans="1:311">
       <x:c r="A22" s="0" t="s"/>
     </x:row>
-    <x:row r="23" spans="1:308">
+    <x:row r="23" spans="1:311">
       <x:c r="A23" s="0" t="s"/>
     </x:row>
-    <x:row r="26" spans="1:308">
+    <x:row r="26" spans="1:311">
       <x:c r="A26" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>324</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:308">
+    <x:row r="27" spans="1:311">
       <x:c r="A27" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>325</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:308">
+    <x:row r="29" spans="1:311">
       <x:c r="A29" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:308">
+    <x:row r="30" spans="1:311">
       <x:c r="A30" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:308">
+    <x:row r="33" spans="1:311">
       <x:c r="A33" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:308">
+    <x:row r="34" spans="1:311">
       <x:c r="A34" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:308">
+    <x:row r="39" spans="1:311">
       <x:c r="A39" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:308">
+    <x:row r="41" spans="1:311">
       <x:c r="A41" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:308">
+    <x:row r="42" spans="1:311">
       <x:c r="A42" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:308">
+    <x:row r="44" spans="1:311">
       <x:c r="A44" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>333</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:308">
+    <x:row r="45" spans="1:311">
       <x:c r="A45" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
